--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed4/result_data_RandomForest.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.110999999999997</v>
+        <v>-7.855099999999993</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.792</v>
+        <v>-12.59850000000001</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.6369</v>
+        <v>15.93949999999999</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.79010000000001</v>
+        <v>-21.77850000000001</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.4341</v>
+        <v>16.66739999999999</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.7126</v>
+        <v>-10.6413</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.2995</v>
+        <v>-22.2079</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.5498</v>
+        <v>16.7347</v>
       </c>
     </row>
     <row r="14">
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.59499999999999</v>
+        <v>-14.57129999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.735799999999996</v>
+        <v>-8.891999999999996</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.89710000000001</v>
+        <v>-21.9118</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.0038</v>
+        <v>16.09239999999999</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.43140000000001</v>
+        <v>-22.34560000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.54360000000001</v>
+        <v>-12.26640000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.74199999999998</v>
+        <v>-21.54219999999997</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.35289999999999</v>
+        <v>15.16579999999999</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.6598</v>
+        <v>16.75200000000001</v>
       </c>
     </row>
     <row r="25">
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.55829999999999</v>
+        <v>-21.70529999999999</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.9152</v>
+        <v>-13.11860000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.81459999999999</v>
+        <v>-21.81509999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.325</v>
+        <v>-12.7505</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.936599999999993</v>
+        <v>-8.608899999999997</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.51659999999998</v>
+        <v>-20.42549999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.2266</v>
+        <v>-11.4724</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.64169999999999</v>
+        <v>16.90139999999999</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.577100000000002</v>
+        <v>-7.8006</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.28769999999999</v>
+        <v>-21.0057</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.373499999999991</v>
+        <v>-8.440199999999994</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.09719999999999</v>
+        <v>-21.2445</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.8702</v>
+        <v>-13.6908</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,10 +1080,10 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.7616</v>
+        <v>-13.08740000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>-9.205799999999995</v>
+        <v>-9.229299999999993</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.25159999999999</v>
+        <v>16.4564</v>
       </c>
     </row>
     <row r="40">
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.392999999999999</v>
+        <v>-8.616499999999998</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.653100000000002</v>
+        <v>-7.905600000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.66509999999999</v>
+        <v>-21.6824</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.3851</v>
+        <v>-7.443499999999999</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.5457</v>
+        <v>-11.4771</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.141199999999995</v>
+        <v>-8.173399999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>17.35980000000001</v>
+        <v>16.64190000000001</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.22030000000001</v>
+        <v>17.182</v>
       </c>
     </row>
     <row r="49">
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.6975</v>
+        <v>-12.9533</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.617500000000003</v>
+        <v>-7.697199999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,13 +1318,13 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.2793</v>
+        <v>-10.99120000000001</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.396</v>
+        <v>17.20060000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.151900000000003</v>
+        <v>-8.116899999999994</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1363,13 +1363,13 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.0964</v>
+        <v>-22.17530000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-12.66309999999999</v>
+        <v>-13.01549999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1392,12 +1392,12 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.5637</v>
+        <v>16.5496</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.2594</v>
+        <v>-22.0744</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.212700000000002</v>
+        <v>-8.146599999999998</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.349499999999999</v>
+        <v>-8.293199999999999</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.585000000000004</v>
+        <v>-7.773300000000002</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.004</v>
+        <v>-5.865999999999998</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.70540000000002</v>
+        <v>-21.77140000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.2287</v>
+        <v>-11.0768</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,10 +1624,10 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.6545</v>
+        <v>-12.6775</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.009400000000005</v>
+        <v>-8.002100000000002</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,13 +1720,13 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.48759999999999</v>
+        <v>-19.27469999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.10500000000002</v>
+        <v>-13.04640000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.74729999999998</v>
+        <v>-19.77989999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1811,10 +1811,10 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.5139</v>
+        <v>-13.7684</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.086500000000004</v>
+        <v>-8.143300000000005</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.38920000000001</v>
+        <v>-22.287</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.16220000000001</v>
+        <v>-22.00809999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.46359999999999</v>
+        <v>-13.9425</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.61120000000001</v>
+        <v>16.95509999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.238399999999995</v>
+        <v>-7.272899999999993</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.32489999999998</v>
+        <v>-20.41389999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-10.1948</v>
+        <v>-10.3852</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.338899999999995</v>
+        <v>-8.219399999999993</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-22.03280000000001</v>
+        <v>-21.9288</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.917499999999995</v>
+        <v>-7.611499999999991</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2134,13 +2134,13 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-10.8549</v>
+        <v>-10.83310000000001</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.731</v>
+        <v>16.65349999999999</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.85450000000001</v>
+        <v>16.82020000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.576</v>
+        <v>-13.37400000000001</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
